--- a/database/AN_pp/expdata/3002.xlsx
+++ b/database/AN_pp/expdata/3002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90DC8E6-CBAF-AC4E-A30A-19E1434B8714}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F6199C-4799-3F41-8CEE-34AB64B6FC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="4940" windowWidth="19900" windowHeight="10660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="960" windowWidth="25820" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00000_ "/>
-    <numFmt numFmtId="165" formatCode="0.000_ "/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -207,17 +203,16 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +530,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -576,112 +571,112 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>0.20703099999999999</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>4.14884E-3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>1.47847E-3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>2.9041900000000001E-5</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1.78135</v>
       </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="F2" s="7">
+        <v>200</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>0.20703099999999999</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>8.7283299999999994E-3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>1.00055E-3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>6.1098299999999997E-5</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>2.2351399999999999</v>
       </c>
-      <c r="F3">
-        <v>200</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="F3" s="7">
+        <v>200</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>0.20703099999999999</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>1.43635E-2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>1.39481E-3</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>1.0054400000000001E-4</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>2.6757200000000001</v>
       </c>
-      <c r="F4">
-        <v>200</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="F4" s="7">
+        <v>200</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>0.20703099999999999</v>
       </c>
       <c r="B5" s="10">
@@ -693,135 +688,135 @@
       <c r="D5" s="11">
         <v>1.4921699999999999E-4</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>3.0612400000000002</v>
       </c>
-      <c r="F5">
-        <v>200</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="F5" s="7">
+        <v>200</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>0.26452799999999999</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>9.2303899999999998E-3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>2.5879700000000002E-3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>6.4612700000000006E-5</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1.74844</v>
       </c>
-      <c r="F6">
-        <v>200</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="F6" s="7">
+        <v>200</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>0.26452799999999999</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>1.62349E-2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>1.87608E-3</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>1.13644E-4</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>2.2730000000000001</v>
       </c>
-      <c r="F7">
-        <v>200</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="F7" s="7">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>0.26452799999999999</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>2.22697E-2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>1.0531399999999999E-3</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>1.55888E-4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>2.74796</v>
       </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="F8" s="7">
+        <v>200</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>0.26452799999999999</v>
       </c>
       <c r="B9" s="10">
@@ -833,170 +828,170 @@
       <c r="D9" s="11">
         <v>1.70297E-4</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>3.2256399999999998</v>
       </c>
-      <c r="F9">
-        <v>200</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="F9" s="7">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>0.32481599999999999</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>1.6568699999999999E-2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>2.7082500000000002E-3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>1.15981E-4</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1.7618499999999999</v>
       </c>
-      <c r="F10">
-        <v>200</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="F10" s="7">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>0.32481599999999999</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>2.2274499999999999E-2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>2.99796E-3</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>1.5592199999999999E-4</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>2.24919</v>
       </c>
-      <c r="F11">
-        <v>200</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="F11" s="7">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>0.32481599999999999</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>3.0957700000000001E-2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>2.0560600000000002E-3</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>2.1670399999999999E-4</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>2.7573300000000001</v>
       </c>
-      <c r="F12">
-        <v>200</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="F12" s="7">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>0.32481599999999999</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>3.4480900000000002E-2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>1.4728E-3</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>2.4136700000000001E-4</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>3.3775300000000001</v>
       </c>
-      <c r="F13">
-        <v>200</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="F13" s="7">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>0.32481599999999999</v>
       </c>
       <c r="B14" s="10">
@@ -1008,25 +1003,25 @@
       <c r="D14" s="11">
         <v>2.7387199999999998E-4</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>4.18825</v>
       </c>
-      <c r="F14">
-        <v>200</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="F14" s="7">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>4</v>
       </c>
     </row>

--- a/database/AN_pp/expdata/3002.xlsx
+++ b/database/AN_pp/expdata/3002.xlsx
@@ -5,20 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F6199C-4799-3F41-8CEE-34AB64B6FC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{753CAF9F-161D-A545-81B8-F213F2C21AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="960" windowWidth="25820" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3880" yWindow="5240" windowWidth="27640" windowHeight="16940" xr2:uid="{9DD999F8-FE42-C546-A60B-A657E9C111D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -78,36 +87,30 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -115,104 +118,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,16 +440,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8DBDC5-BE52-5A41-BF94-B90726A8622D}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,476 +483,466 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0.20703099999999999</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>4.14884E-3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>1.47847E-3</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>2.9041900000000001E-5</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2">
         <v>1.78135</v>
       </c>
-      <c r="F2" s="7">
-        <v>200</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>0.20703099999999999</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3">
         <v>8.7283299999999994E-3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>1.00055E-3</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3">
         <v>6.1098299999999997E-5</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3">
         <v>2.2351399999999999</v>
       </c>
-      <c r="F3" s="7">
-        <v>200</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>0.20703099999999999</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>1.43635E-2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>1.39481E-3</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4">
         <v>1.0054400000000001E-4</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>2.6757200000000001</v>
       </c>
-      <c r="F4" s="7">
-        <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>0.20703099999999999</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>2.1316600000000002E-2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>5.0735800000000003E-3</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5">
         <v>1.4921699999999999E-4</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5">
         <v>3.0612400000000002</v>
       </c>
-      <c r="F5" s="7">
-        <v>200</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6">
         <v>0.26452799999999999</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>9.2303899999999998E-3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>2.5879700000000002E-3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>6.4612700000000006E-5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>1.74844</v>
       </c>
-      <c r="F6" s="7">
-        <v>200</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7">
         <v>0.26452799999999999</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>1.62349E-2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>1.87608E-3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>1.13644E-4</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7">
         <v>2.2730000000000001</v>
       </c>
-      <c r="F7" s="7">
-        <v>200</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8">
         <v>0.26452799999999999</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>2.22697E-2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>1.0531399999999999E-3</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>1.55888E-4</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8">
         <v>2.74796</v>
       </c>
-      <c r="F8" s="7">
-        <v>200</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>0.26452799999999999</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>2.4328200000000001E-2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>1.0802400000000001E-3</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9">
         <v>1.70297E-4</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9">
         <v>3.2256399999999998</v>
       </c>
-      <c r="F9" s="7">
-        <v>200</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>0.32481599999999999</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>1.6568699999999999E-2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>2.7082500000000002E-3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>1.15981E-4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>1.7618499999999999</v>
       </c>
-      <c r="F10" s="7">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>0.32481599999999999</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>2.2274499999999999E-2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>2.99796E-3</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>1.5592199999999999E-4</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11">
         <v>2.24919</v>
       </c>
-      <c r="F11" s="7">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>0.32481599999999999</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>3.0957700000000001E-2</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>2.0560600000000002E-3</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>2.1670399999999999E-4</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>2.7573300000000001</v>
       </c>
-      <c r="F12" s="7">
-        <v>200</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>0.32481599999999999</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>3.4480900000000002E-2</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>1.4728E-3</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>2.4136700000000001E-4</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13">
         <v>3.3775300000000001</v>
       </c>
-      <c r="F13" s="7">
-        <v>200</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>0.32481599999999999</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14">
         <v>3.9124600000000002E-2</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14">
         <v>4.9312999999999996E-3</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14">
         <v>2.7387199999999998E-4</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14">
         <v>4.18825</v>
       </c>
-      <c r="F14" s="7">
-        <v>200</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>